--- a/MVandebroek/TAKEN/ATSTAT-TASKS/TASK1/1.FILES/responses_test_TAAK1.xlsx
+++ b/MVandebroek/TAKEN/ATSTAT-TASKS/TASK1/1.FILES/responses_test_TAAK1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/leonard_maaya_kuleuven_be1/Documents/ATSTAT-TASKS/TASK1/1.FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE086A26-FEB5-422F-AE82-7C80795DDBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{DE086A26-FEB5-422F-AE82-7C80795DDBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA7321A-079A-4522-8EDA-9EE193BE1A94}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TASK1-Your responses.downloadlo" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TASK1-Your responses.downloadlo'!$A$1:$K$1566</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -3625,7 +3628,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4462,10 +4465,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1550" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1375" sqref="G1375"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -38019,7 +38024,7 @@
         <v>15</v>
       </c>
       <c r="G1157">
-        <v>47.49</v>
+        <v>47489.495000000003</v>
       </c>
       <c r="H1157">
         <v>1</v>
@@ -38051,7 +38056,7 @@
         <v>17</v>
       </c>
       <c r="G1158" s="2">
-        <v>8448</v>
+        <v>8.4480000000000004</v>
       </c>
       <c r="H1158">
         <v>1</v>
@@ -49890,6 +49895,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1566" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>